--- a/Geen Code/burndowneind_project.xlsx
+++ b/Geen Code/burndowneind_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Media\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6008629A-7167-49EE-AF5D-ACC73C81656D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8BA0BA-CB13-47E0-BBE4-0DB6715217D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>Taak</t>
   </si>
@@ -644,28 +644,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,25 +770,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>88</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.428571428571431</c:v>
+                  <c:v>64.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.857142857142861</c:v>
+                  <c:v>53.571428571428577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.285714285714292</c:v>
+                  <c:v>42.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.714285714285722</c:v>
+                  <c:v>32.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.142857142857153</c:v>
+                  <c:v>21.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.571428571428582</c:v>
+                  <c:v>10.714285714285717</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2152,14 +2152,12 @@
       <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2173,11 +2171,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="22"/>
@@ -2190,11 +2187,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="22"/>
@@ -2207,12 +2203,11 @@
         <v>3</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="22"/>
     </row>
@@ -2224,12 +2219,11 @@
         <v>2</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="22"/>
     </row>
@@ -2241,12 +2235,11 @@
         <v>2</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="22"/>
     </row>
@@ -2258,13 +2251,12 @@
         <v>5</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2275,30 +2267,24 @@
         <v>1</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2310,12 +2296,11 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2327,13 +2312,13 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
@@ -2344,13 +2329,12 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="22" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
@@ -2361,30 +2345,24 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="25" t="s">
+        <v>20</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="25" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5">
-        <v>3</v>
-      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="25" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
@@ -2396,11 +2374,10 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2413,11 +2390,10 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2464,9 +2440,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="25"/>
@@ -2475,17 +2449,12 @@
       <c r="A30" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="5">
-        <v>2</v>
-      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2498,7 +2467,6 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
         <v>20</v>
       </c>
@@ -2515,7 +2483,6 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
         <v>20</v>
       </c>
@@ -2531,11 +2498,9 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="25"/>
     </row>
@@ -2543,16 +2508,12 @@
       <c r="A34" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="5">
-        <v>2</v>
-      </c>
+      <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="25"/>
     </row>
@@ -2568,10 +2529,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="25" t="s">
-        <v>20</v>
-      </c>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
@@ -2585,8 +2543,9 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="25"/>
+      <c r="H36" s="25" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
@@ -2600,8 +2559,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="25" t="s">
+      <c r="H37" s="25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2611,35 +2569,35 @@
       </c>
       <c r="B38" s="8">
         <f>SUM(B3:B37)</f>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C38" s="9">
         <f t="shared" ref="C38:I38" si="0">B$38-SUM(C3:C37)</f>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D38" s="9">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F38" s="9">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G38" s="9">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <f>G$38-SUM(H3:H37)</f>
+        <v>58</v>
       </c>
       <c r="I38" s="10">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2648,31 +2606,31 @@
       </c>
       <c r="B39" s="12">
         <f>B38</f>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C39" s="13">
         <f t="shared" ref="C39:I39" si="1">B$39-$B$39/COUNT($C$1:$I$1)</f>
-        <v>75.428571428571431</v>
+        <v>64.285714285714292</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" si="1"/>
-        <v>62.857142857142861</v>
+        <v>53.571428571428577</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="1"/>
-        <v>50.285714285714292</v>
+        <v>42.857142857142861</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="1"/>
-        <v>37.714285714285722</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="1"/>
-        <v>25.142857142857153</v>
+        <v>21.428571428571431</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="1"/>
-        <v>12.571428571428582</v>
+        <v>10.714285714285717</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" si="1"/>
@@ -2700,15 +2658,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2957,15 +2906,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2982,4 +2932,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>